--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2058707.519581942</v>
+        <v>-2061568.333374234</v>
       </c>
     </row>
     <row r="7">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244.8448976285502</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>153.8667238584378</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>189.3586484491726</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>135.1419353268893</v>
       </c>
       <c r="T3" t="n">
-        <v>67.75588341012106</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>86.74795150417786</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>16.39467431752542</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2792495146818959</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>104.1383913127193</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>68.59083921932492</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>134.5404641870286</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>16.77414747816566</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>68.83150636491045</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>234.3583234882478</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658357</v>
+        <v>152.6054904711276</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819519</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814999</v>
+        <v>73.18818411815019</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
         <v>207.5073162493723</v>
@@ -1190,16 +1190,16 @@
         <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.83392671696369</v>
       </c>
       <c r="I9" t="n">
-        <v>23.7963092690661</v>
+        <v>23.79630926906619</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858445</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>92.27393762994357</v>
       </c>
       <c r="U9" t="n">
-        <v>83.14657757059094</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>35.78544358889921</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169636</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>9.52255762308859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>152.2221689967083</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>97.98413062224054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>115.4863975071902</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>40.57972681915197</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.72582864853726</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>107.0531836110629</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.98898794535445</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710075</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701348</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560535</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.13676080754331</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>207.0793768444223</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,10 +3196,10 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799755</v>
+        <v>709.2733567248176</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4151888127975</v>
+        <v>709.2733567248176</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0971104001205</v>
+        <v>709.2733567248176</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0971104001205</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>709.2733567248176</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471535</v>
+        <v>709.2733567248176</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471535</v>
+        <v>709.2733567248176</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471535</v>
+        <v>709.2733567248176</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799755</v>
+        <v>709.2733567248176</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5660780344868</v>
+        <v>239.9155982686269</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5660780344868</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>900.0126308321185</v>
       </c>
       <c r="T3" t="n">
-        <v>986.4152337331752</v>
+        <v>703.2035524635561</v>
       </c>
       <c r="U3" t="n">
-        <v>986.4152337331752</v>
+        <v>475.0677065003696</v>
       </c>
       <c r="V3" t="n">
-        <v>986.4152337331752</v>
+        <v>239.9155982686269</v>
       </c>
       <c r="W3" t="n">
-        <v>732.1778770049735</v>
+        <v>239.9155982686269</v>
       </c>
       <c r="X3" t="n">
-        <v>524.3263767994407</v>
+        <v>239.9155982686269</v>
       </c>
       <c r="Y3" t="n">
-        <v>316.5660780344868</v>
+        <v>239.9155982686269</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.666471045117</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="C4" t="n">
-        <v>189.666471045117</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="D4" t="n">
-        <v>189.666471045117</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>909.5027147522982</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>684.0336785103125</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6560219431344</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>417.6560219431344</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>417.6560219431344</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>189.666471045117</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.666471045117</v>
+        <v>232.1057215405108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>574.0438072739748</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>307.6661507067968</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>307.6661507067968</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.6661507067968</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283.6806546278672</v>
+        <v>886.6401829859565</v>
       </c>
       <c r="C6" t="n">
-        <v>283.6806546278672</v>
+        <v>712.1871537048295</v>
       </c>
       <c r="D6" t="n">
-        <v>134.746244966616</v>
+        <v>563.2527440435782</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>404.0152890381227</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>257.4807310650077</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313625</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>713.6562631339676</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>883.5948104606975</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1000.652410494101</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534681</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>659.7474918534681</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>659.7474918534681</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>451.8959916479353</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y6" t="n">
-        <v>451.8959916479353</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.8982497058279</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="C7" t="n">
-        <v>191.962066777921</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="D7" t="n">
-        <v>191.962066777921</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="E7" t="n">
-        <v>175.0184834666425</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165361</v>
+        <v>778.5417113105657</v>
       </c>
       <c r="U7" t="n">
-        <v>581.690828849358</v>
+        <v>778.5417113105657</v>
       </c>
       <c r="V7" t="n">
-        <v>581.690828849358</v>
+        <v>778.5417113105657</v>
       </c>
       <c r="W7" t="n">
-        <v>581.690828849358</v>
+        <v>512.1640547433877</v>
       </c>
       <c r="X7" t="n">
-        <v>581.690828849358</v>
+        <v>512.1640547433877</v>
       </c>
       <c r="Y7" t="n">
-        <v>360.8982497058279</v>
+        <v>291.3714755998577</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>754.8179748718605</v>
+        <v>973.3903445990925</v>
       </c>
       <c r="C8" t="n">
-        <v>754.8179748718605</v>
+        <v>973.3903445990925</v>
       </c>
       <c r="D8" t="n">
-        <v>754.8179748718605</v>
+        <v>973.3903445990925</v>
       </c>
       <c r="E8" t="n">
-        <v>369.0297222736163</v>
+        <v>587.6020920008482</v>
       </c>
       <c r="F8" t="n">
-        <v>132.3041429925579</v>
+        <v>580.6565912516447</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4438610970189</v>
+        <v>426.5096311797986</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970189</v>
+        <v>120.443861097019</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181688</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229164</v>
+        <v>166.4989367229155</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677493</v>
+        <v>397.0601716677479</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937574</v>
+        <v>719.9935330937549</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721577</v>
+        <v>1110.988557721573</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.92409899942</v>
+        <v>1512.924098999416</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830556</v>
+        <v>1879.12517183055</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271722</v>
+        <v>2157.168314271717</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257582</v>
+        <v>2317.794388257576</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590844</v>
+        <v>2325.820119590838</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590844</v>
+        <v>2196.656028259773</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.216769844003</v>
+        <v>1987.052678512933</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.620034255365</v>
+        <v>1733.455942924294</v>
       </c>
       <c r="V8" t="n">
-        <v>1531.557146911794</v>
+        <v>1733.455942924294</v>
       </c>
       <c r="W8" t="n">
-        <v>1531.557146911794</v>
+        <v>1733.455942924294</v>
       </c>
       <c r="X8" t="n">
-        <v>1531.557146911794</v>
+        <v>1359.990184663214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1141.417814935982</v>
+        <v>1359.990184663214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>836.5187757200355</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>662.0657464389085</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>513.1313367776572</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>353.8938817722017</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
-        <v>207.3593237990867</v>
+        <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>70.55307842117658</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117658</v>
+        <v>70.55307842117654</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181688</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977936</v>
+        <v>99.15933091977897</v>
       </c>
       <c r="K9" t="n">
-        <v>397.0448940691498</v>
+        <v>529.1098899837342</v>
       </c>
       <c r="L9" t="n">
-        <v>972.6853736678837</v>
+        <v>801.5039302761479</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.913238864548</v>
+        <v>1138.731795472811</v>
       </c>
       <c r="N9" t="n">
-        <v>1670.475167115884</v>
+        <v>1499.293723724147</v>
       </c>
       <c r="O9" t="n">
-        <v>1978.099094776772</v>
+        <v>1806.917651385034</v>
       </c>
       <c r="P9" t="n">
-        <v>2205.661351085887</v>
+        <v>2205.661351085882</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.861496570698</v>
+        <v>2307.861496570692</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590844</v>
+        <v>2325.820119590838</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160698</v>
+        <v>2325.820119590838</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.72181866103</v>
+        <v>2232.614121984834</v>
       </c>
       <c r="U9" t="n">
-        <v>1909.735376670534</v>
+        <v>2004.517120829084</v>
       </c>
       <c r="V9" t="n">
-        <v>1674.583268438792</v>
+        <v>1769.365012597341</v>
       </c>
       <c r="W9" t="n">
-        <v>1420.34591171059</v>
+        <v>1515.127655869139</v>
       </c>
       <c r="X9" t="n">
-        <v>1212.494411505057</v>
+        <v>1307.276155663606</v>
       </c>
       <c r="Y9" t="n">
-        <v>1004.734112740103</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.4777307196734</v>
+        <v>82.66331510787657</v>
       </c>
       <c r="C10" t="n">
-        <v>601.5415477917666</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="D10" t="n">
-        <v>451.4249083794308</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="E10" t="n">
-        <v>451.4249083794308</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="F10" t="n">
-        <v>304.5349608815204</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="G10" t="n">
-        <v>304.5349608815204</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="H10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181688</v>
+        <v>46.51640239181675</v>
       </c>
       <c r="J10" t="n">
-        <v>65.8954080190955</v>
+        <v>65.89540801909521</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736018</v>
+        <v>227.5779039736013</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632616</v>
+        <v>490.0022680632608</v>
       </c>
       <c r="M10" t="n">
-        <v>777.081088479405</v>
+        <v>777.0810884794039</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620619</v>
+        <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257115</v>
+        <v>1310.630639257113</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325117</v>
+        <v>1499.198894325115</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718231</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600086</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.783439600086</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.429428829627</v>
+        <v>1546.318699718229</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.429428829627</v>
+        <v>1257.195568222511</v>
       </c>
       <c r="V10" t="n">
-        <v>961.74494062374</v>
+        <v>1002.511080016624</v>
       </c>
       <c r="W10" t="n">
-        <v>961.74494062374</v>
+        <v>713.0939099796637</v>
       </c>
       <c r="X10" t="n">
-        <v>952.1261955499132</v>
+        <v>485.1043590816464</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.1261955499132</v>
+        <v>264.3117799381163</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5233,16 +5233,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5364,19 +5364,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529338</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,22 +5598,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.4916164683283</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C19" t="n">
-        <v>754.5554335404214</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5780,19 +5780,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154528</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,10 +6020,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
@@ -6215,7 +6215,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
         <v>705.9324428257312</v>
@@ -6610,13 +6610,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1987.891457765928</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1698.816231110126</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,25 +7786,25 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380726</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.13373767211337</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>131.0662512402702</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>306.3095346528481</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>172.9105488805377</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>109.8381439921328</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.00398674708059</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>61.78951942910987</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>12.0080000853095</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>188.3244899260683</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>147.3599015160448</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15.02465210191957</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33.12907551102215</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>131.695219374394</v>
+        <v>22.81817176293617</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>118.6564717779743</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>72.44497470121472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.695219374394</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>10.32607348286592</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772871</v>
+        <v>67700.85635772868</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="E2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
+        <v>80714.65996900057</v>
+      </c>
+      <c r="G2" t="n">
         <v>80714.65996900063</v>
       </c>
-      <c r="G2" t="n">
-        <v>80714.65996900064</v>
-      </c>
       <c r="H2" t="n">
+        <v>80714.6599690006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="J2" t="n">
         <v>80714.65996900063</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>80714.65996900063</v>
       </c>
-      <c r="J2" t="n">
-        <v>80714.65996900064</v>
-      </c>
-      <c r="K2" t="n">
-        <v>80714.65996900061</v>
-      </c>
       <c r="L2" t="n">
+        <v>82104.17698642841</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642841</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>82104.17698642834</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512986</v>
+        <v>331437.5228512972</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424107</v>
+        <v>563905.7843424123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743994e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201205</v>
+        <v>99845.14336201182</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569556</v>
+        <v>147342.676956956</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.969447324285282e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.566226927264194e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>166333.8547494092</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>153791.3594476896</v>
+        <v>153791.35944769</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756606</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756603</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="L4" t="n">
+        <v>17328.05961985006</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17328.05961985006</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17328.05961985006</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17328.05961985006</v>
+      </c>
+      <c r="P4" t="n">
         <v>17328.05961985007</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17328.05961985007</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17328.05961985008</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17328.05961985009</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543586</v>
+        <v>88290.79546543573</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-841768.78218714</v>
+        <v>-842128.8652028573</v>
       </c>
       <c r="C6" t="n">
-        <v>-229486.8929043847</v>
+        <v>-229486.8929043846</v>
       </c>
       <c r="D6" t="n">
-        <v>-491415.5007779957</v>
+        <v>-491415.5007779945</v>
       </c>
       <c r="E6" t="n">
-        <v>-593650.8545540738</v>
+        <v>-593685.5924795109</v>
       </c>
       <c r="F6" t="n">
-        <v>-29745.07021166307</v>
+        <v>-29779.80813709885</v>
       </c>
       <c r="G6" t="n">
-        <v>-29745.07021166307</v>
+        <v>-29779.80813709876</v>
       </c>
       <c r="H6" t="n">
-        <v>-29745.07021166307</v>
+        <v>-29779.80813709884</v>
       </c>
       <c r="I6" t="n">
-        <v>-29745.07021166309</v>
+        <v>-29779.80813709879</v>
       </c>
       <c r="J6" t="n">
-        <v>-98744.22463077726</v>
+        <v>-98778.96255621278</v>
       </c>
       <c r="K6" t="n">
-        <v>-29745.07021166316</v>
+        <v>-29779.80813709885</v>
       </c>
       <c r="L6" t="n">
-        <v>-138233.1418493491</v>
+        <v>-138233.1418493489</v>
       </c>
       <c r="M6" t="n">
-        <v>-185730.6754442927</v>
+        <v>-185730.675444293</v>
       </c>
       <c r="N6" t="n">
-        <v>-38387.99848733714</v>
+        <v>-38387.99848733705</v>
       </c>
       <c r="O6" t="n">
-        <v>-38387.99848733722</v>
+        <v>-38387.99848733707</v>
       </c>
       <c r="P6" t="n">
-        <v>-38387.9984873371</v>
+        <v>-38387.9984873372</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896804</v>
+        <v>885.8132865896791</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.455029897711</v>
+        <v>581.4550298977094</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203963</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.961809155356603e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.207783659080243e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.758272820202</v>
+        <v>271.7582728202009</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519934</v>
+        <v>482.1622137519946</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962048</v>
+        <v>317.7411498962032</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019389</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962048</v>
+        <v>317.7411498962038</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962048</v>
+        <v>317.7411498962032</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>378.9263833251812</v>
+        <v>228.063646213824</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>127.0851041747557</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>65.63420783167892</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.4545921487987</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>250.5446503079636</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>89.05424123607602</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>1.482255399394859</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>129.6598151684035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>154.3828395146554</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>172.5177222534636</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>259.136188605456</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177535</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696366</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>100.2109570047279</v>
       </c>
       <c r="U9" t="n">
-        <v>142.6694535736023</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>131.4613775097286</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>196.178826391195</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>216.1870977659486</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551476</v>
+        <v>3.561058438551471</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381531</v>
+        <v>36.46968973381527</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522559</v>
+        <v>137.2877054522557</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490086</v>
+        <v>302.2403836490082</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528927</v>
+        <v>452.9799873528921</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417125</v>
+        <v>561.9617295417117</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483023</v>
+        <v>625.2907025483015</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368368</v>
+        <v>635.4085598368359</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884905</v>
+        <v>599.9982849884897</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867509</v>
+        <v>512.0846547867501</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.554249456126</v>
+        <v>384.5542494561254</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406594</v>
+        <v>223.692337140659</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849184</v>
+        <v>81.14761916849173</v>
       </c>
       <c r="T8" t="n">
-        <v>15.5885333147591</v>
+        <v>15.58853331475907</v>
       </c>
       <c r="U8" t="n">
-        <v>0.284884675084118</v>
+        <v>0.2848846750841176</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.90533423907969</v>
+        <v>1.905334239079687</v>
       </c>
       <c r="H9" t="n">
-        <v>18.4015175195328</v>
+        <v>18.40151751953277</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234898</v>
+        <v>65.60032358234889</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474369</v>
+        <v>180.0123019474366</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657761</v>
+        <v>307.6696959657756</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247371</v>
+        <v>413.6998750247365</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913758</v>
+        <v>482.7682411913751</v>
       </c>
       <c r="N9" t="n">
-        <v>495.545680013976</v>
+        <v>495.5456800139754</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059471</v>
+        <v>453.3274845059465</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730331</v>
+        <v>363.8352723730326</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726987</v>
+        <v>243.2142442726984</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053162</v>
+        <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799334</v>
+        <v>35.39074781799329</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150151</v>
+        <v>7.67983406015014</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815586</v>
+        <v>0.1253509367815584</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719096</v>
+        <v>1.597368221719093</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401161</v>
+        <v>14.20205564401159</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587972</v>
+        <v>48.03721888587966</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755401</v>
+        <v>112.9339332755399</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051822</v>
+        <v>185.5851443051819</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817645</v>
+        <v>237.4850899817642</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191124</v>
+        <v>250.394729519112</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108869</v>
+        <v>244.4409025108865</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753501</v>
+        <v>225.7807373753498</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522804</v>
+        <v>193.1944256522801</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750417</v>
+        <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020587</v>
+        <v>71.82348386020576</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577732</v>
+        <v>27.83777164577728</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527043</v>
+        <v>6.825118765527034</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013258</v>
+        <v>0.08712917573013247</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>729.0844763571695</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,10 +33983,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O39" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015062</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.75061566860978</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223223</v>
+        <v>121.1944791223219</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079121</v>
+        <v>232.8901363079115</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717253</v>
+        <v>326.1953145717245</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210296</v>
+        <v>394.9444693210288</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402459</v>
+        <v>405.995496240245</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668037</v>
+        <v>369.9000735668029</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314813</v>
+        <v>280.8516590314806</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816765</v>
+        <v>162.2485595816759</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527238</v>
+        <v>8.106799326526925</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077017</v>
+        <v>53.17467528076992</v>
       </c>
       <c r="K9" t="n">
-        <v>300.8945082316873</v>
+        <v>434.2934940039952</v>
       </c>
       <c r="L9" t="n">
-        <v>581.455029897711</v>
+        <v>275.1454952448623</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693574</v>
+        <v>340.6342072693568</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306428</v>
+        <v>364.2039679306421</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615027</v>
+        <v>310.731240061502</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587028</v>
+        <v>402.77141383924</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866772</v>
+        <v>103.2324701866768</v>
       </c>
       <c r="R9" t="n">
-        <v>18.1400232526731</v>
+        <v>18.14002325267293</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886728</v>
+        <v>19.57475315886713</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792993</v>
+        <v>163.315652479299</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420806</v>
+        <v>265.0751152420803</v>
       </c>
       <c r="M10" t="n">
-        <v>289.978606480953</v>
+        <v>289.9786064809526</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901154</v>
+        <v>288.5730748901151</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893897</v>
+        <v>250.3658652893894</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171738</v>
+        <v>190.4729849171736</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334735</v>
+        <v>47.59576302334717</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>586.9504424351511</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,10 +37631,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O39" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
